--- a/working/crawling/media_crawling/미디어 크롤링 대상 자료.xlsx
+++ b/working/crawling/media_crawling/미디어 크롤링 대상 자료.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Documents\kangyouwon.com\service\materiality-service\app\www\media_crawling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Documents\kangyouwon.com\working\crawling\media_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CDE65-C086-4FC2-B82E-4AD1294DBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064FF81-606F-456E-8011-71673C95F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{664A7B52-8C9D-40B4-B155-B10ABA16CAEF}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
